--- a/results/output/recall.tstbl.populated.xlsx
+++ b/results/output/recall.tstbl.populated.xlsx
@@ -2859,7 +2859,7 @@
         <v>0.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AP2" t="n">
         <v>0.0</v>
@@ -7339,7 +7339,7 @@
         <v>0.0</v>
       </c>
       <c r="AO37" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP37" t="n">
         <v>0.0</v>
@@ -9259,7 +9259,7 @@
         <v>0.0</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="AP52" t="n">
         <v>0.0</v>
@@ -14507,7 +14507,7 @@
         <v>0.0</v>
       </c>
       <c r="AO93" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP93" t="n">
         <v>0.0</v>
@@ -16683,7 +16683,7 @@
         <v>0.0</v>
       </c>
       <c r="AO110" t="n">
-        <v>1.0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AP110" t="n">
         <v>0.0</v>
@@ -19627,7 +19627,7 @@
         <v>0.0</v>
       </c>
       <c r="AO133" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP133" t="n">
         <v>0.0</v>
@@ -22315,7 +22315,7 @@
         <v>0.5</v>
       </c>
       <c r="AO154" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP154" t="n">
         <v>0.5</v>
@@ -24363,7 +24363,7 @@
         <v>0.0</v>
       </c>
       <c r="AO170" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="AP170" t="n">
         <v>0.0</v>
@@ -24619,7 +24619,7 @@
         <v>0.0</v>
       </c>
       <c r="AO172" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="AP172" t="n">
         <v>0.0</v>
@@ -28843,7 +28843,7 @@
         <v>0.0</v>
       </c>
       <c r="AO205" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP205" t="n">
         <v>0.0</v>
@@ -32427,7 +32427,7 @@
         <v>0.0</v>
       </c>
       <c r="AO233" t="n">
-        <v>0.3333333333333333</v>
+        <v>1.0</v>
       </c>
       <c r="AP233" t="n">
         <v>0.0</v>
@@ -32939,7 +32939,7 @@
         <v>0.0</v>
       </c>
       <c r="AO237" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP237" t="n">
         <v>0.0</v>
@@ -33323,7 +33323,7 @@
         <v>0.0</v>
       </c>
       <c r="AO240" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP240" t="n">
         <v>0.0</v>
@@ -39723,7 +39723,7 @@
         <v>0.5</v>
       </c>
       <c r="AO290" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP290" t="n">
         <v>0.5</v>
@@ -42539,7 +42539,7 @@
         <v>0.0</v>
       </c>
       <c r="AO312" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP312" t="n">
         <v>0.0</v>
@@ -44971,7 +44971,7 @@
         <v>0.0</v>
       </c>
       <c r="AO331" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP331" t="n">
         <v>0.0</v>
@@ -45099,7 +45099,7 @@
         <v>0.0</v>
       </c>
       <c r="AO332" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP332" t="n">
         <v>0.0</v>
@@ -45867,7 +45867,7 @@
         <v>0.0</v>
       </c>
       <c r="AO338" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP338" t="n">
         <v>0.0</v>
@@ -62123,7 +62123,7 @@
         <v>0.0</v>
       </c>
       <c r="AO465" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.0</v>
       </c>
       <c r="AP465" t="n">
         <v>0.0</v>
@@ -62379,7 +62379,7 @@
         <v>0.0</v>
       </c>
       <c r="AO467" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AP467" t="n">
         <v>0.0</v>
